--- a/Output_testing/R1_201907/Country/HKD/MN/PARAGUAY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PARAGUAY_201907_HKD_MN.xlsx
@@ -544,17 +544,23 @@
       <c r="C7" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.362778</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>0.907081</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.224101</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.145457</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>150.0374884915844</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/PARAGUAY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PARAGUAY_201907_HKD_MN.xlsx
@@ -816,136 +816,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>787.914661</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>67.33373518322728</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>353.30816</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>39.41853476900451</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>965.418216</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>70.97993359778255</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>883.4366230000001</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>81.70347693164575</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>125.0100408542103</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>73.71637</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.299665156565476</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>55.909454</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.237808819403034</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>31.325699</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>2.303142822534149</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>59.68653</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.520030413075803</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>115.9450676748018</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>66.51176</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.68397246057891</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>95.47587</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>10.65222750925412</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>83.19428600000001</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.116649549520132</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>38.998739</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.606747206641187</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-29.07106038246739</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>131.846306</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>11.26734238175414</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>177.458728</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>19.79904183286147</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>61.933508</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.553504597760494</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>16.593177</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.534598203138127</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-68.04064797920648</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>6.32498</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.5405211369194319</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>17.281216</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.928062498603703</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>26.199961</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.926285894780022</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>10.995645</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.016917800572171</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-47.54014196107349</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>13.877836</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.185974294416966</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>46.438202</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.181102752189632</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>31.13952</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.289454482249816</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>10.916232</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.009573393464008</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-35.26330687048922</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>8.302068999999999</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.7094795200401538</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>26.791556</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.989129607710536</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>36.765358</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.703079998170143</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>10.335043</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9558228913700659</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-42.62873010235525</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>8.931889</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.7633027767863563</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>7.158994</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.7987278128535006</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>6.876067</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.5055454423639172</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>10.055381</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9299587182411941</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>182.0735646912821</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>4.797224</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.4099619240752042</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>14.134203</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.576950762721325</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>13.765764</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.012092996018987</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>8.515419</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.7875373532367108</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>62.36218007262944</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.374996</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1175046247070617</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.824312</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4461701653985673</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>66.565214</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.688540540929029</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>102.282979</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.41169556907165</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>103.434176</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.604736292049987</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>26.914659</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.489166923216417</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-60.6059218238874</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1284,601 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>82.07774451592985</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>34.11558614941775</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>76.15941026590689</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>77.08394920835711</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>88.91360021566248</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>13.8211247650078</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>14.39600706738074</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>4.101130719062347</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>7.036968032623327</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>23.84058973409311</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.520043724262152</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-56.86390532544379</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>34.99279557172954</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>16.60314789969143</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>7.25150234653796</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, SALTED, IN BRINE, DRIED OR SMOKED; EDIBLE FLOURS AND MEALS OF MEAT OR MEAT OFFAL</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1910,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>787.914661</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>67.3546166901325</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>353.30816</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>39.4584678755879</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>965.418216</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>70.99163050500367</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>883.4366230000001</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>81.71446948876981</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>125.0100408542103</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>73.71637</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.301618805818848</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>55.909454</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.244128056936639</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>31.325699</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.303522361462219</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>59.68653</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.520773089543452</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>115.9450676748018</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>66.51176</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.68573517149732</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>95.47587</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>10.66301879155241</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>83.19428600000001</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.117657522881875</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>38.998739</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.607232465973959</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-29.07106038246739</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>131.846306</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>11.27083660477783</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>177.392951</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>19.81175316864812</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>61.933508</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.554254977735668</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>16.593177</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.534804671198533</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-68.04064797920648</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>6.32498</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.5406887630851615</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>17.281216</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.93001573014078</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>26.199961</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.926603330796802</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>10.995645</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.017054618825604</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-47.54014196107349</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>13.877836</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.186342088218259</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>46.438202</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.186351489354397</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>31.13952</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.289831765452385</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>10.916232</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.009709223585507</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-35.26330687048922</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>8.302068999999999</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.7096995435017444</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>26.791556</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.992157757587638</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>36.765358</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.70352544344386</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>10.335043</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9559514897862955</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-42.62873010235525</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>8.931889</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7635394918915095</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>7.158994</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.7995369673050476</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>6.876067</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.5056287520802788</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>10.055381</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.930083836837332</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>182.0735646912821</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>4.797224</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.4100890612780516</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>14.134203</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.578548299089775</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>13.765764</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.01225978059138</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>8.515419</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.7876433101637339</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>62.36218007262944</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.374996</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1175410651870907</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.824312</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4462301940682688</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>66.20243600000001</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>5.659292714611676</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>101.441675</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>11.32929699170641</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>103.210075</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.589510315179009</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>26.769202</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.476047611247508</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-60.76824370620039</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2378,507 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>21.499295</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>39.010812663971</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>32.739492</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>37.73653532842291</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>36.919247</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>37.30151215048796</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>47.51856</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>50.18131029378172</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>16.405939</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>29.7688372063147</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-51.77356419554502</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.7911</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.835430084022132</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>10.20185</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>18.51141905704036</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>13.971667</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>16.10416879230932</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>6.672266</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.741351232604709</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2.623123</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.770112335090869</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.979074</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.220093049101273</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>108.5080606071721</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>23.008927</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>26.52078983402075</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>47.483494</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>47.975142298775</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>35.256615</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>37.23225487521926</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.12241</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.851146696026018</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-92.89018009661123</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>2.261681</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.606882384067623</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2.90625</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.936341569679242</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1.884375</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.989967848033377</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.518765</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.9413073420140016</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>64.68730158730158</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>8.256105</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>9.516238004171509</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>3.603997</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.641313103862117</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>4.827371</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>5.09787758834029</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.5722983155594847</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-92.83623203975914</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.3213383846824819</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.1515531132737673</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.09072579511088852</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1644757543954755</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>9.378733572281961</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>6.098721</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>7.029571517929928</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.195667</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.208047041924704</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.732562</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.829647853916765</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
